--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangalor/PycharmProjects/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangalor/PycharmProjects/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A058EC8E-BA34-554A-8F66-5C8DD553611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DB662-154D-B541-B907-FFB81558E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="1660" windowWidth="15720" windowHeight="24100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="22240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$70</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">Account: </t>
   </si>
@@ -185,13 +185,64 @@
   </si>
   <si>
     <t>{{total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum 25% Overtime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum 50% Overtime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum 100% Overtime </t>
+  </si>
+  <si>
+    <t>{{total_fee_25_ot}}</t>
+  </si>
+  <si>
+    <t>{{total_fee_50_ot}}</t>
+  </si>
+  <si>
+    <t>{{total_fee_100_ot}}</t>
+  </si>
+  <si>
+    <t>{{total_agency_fee_25_ot}}</t>
+  </si>
+  <si>
+    <t>{{total_agency_fee_50_ot}}</t>
+  </si>
+  <si>
+    <t>{{total_agency_fee_100_ot}}</t>
+  </si>
+  <si>
+    <t>{{grand_total_25_ot}}</t>
+  </si>
+  <si>
+    <t>{{grand_total_50_ot}}</t>
+  </si>
+  <si>
+    <t>{{grand_total_100_ot}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLE OF THE PDA AMOUNT BASIS OVERTIME: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fee with 25% overtime (for in and out) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total agency fee basis 25% overtime (for in and out) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand total basis 25% overtime (for in and out) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +303,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -438,145 +510,447 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,7 +960,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -667,43 +1041,42 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61207</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
+      <xdr:colOff>725760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>605190</xdr:rowOff>
+      <xdr:rowOff>621000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="2" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6293C3-8774-EA29-E4FF-E4AB35ECE256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="61207" y="749300"/>
-          <a:ext cx="2326394" cy="2205390"/>
+          <a:off x="0" y="684360"/>
+          <a:ext cx="2352600" cy="2227680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -890,221 +1263,222 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="A4:F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15">
+      <c r="F2" s="47"/>
+      <c r="G2" s="4">
         <v>22</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="49">
         <f ca="1">TODAY()</f>
-        <v>45560</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+        <v>45569</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="40" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="18" t="s">
         <v>18</v>
       </c>
@@ -1114,19 +1488,19 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="18" t="s">
         <v>22</v>
       </c>
@@ -1136,19 +1510,19 @@
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="18" t="s">
         <v>26</v>
       </c>
@@ -1158,17 +1532,17 @@
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1176,17 +1550,17 @@
       <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1194,11 +1568,11 @@
       <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="19" t="s">
         <v>32</v>
       </c>
@@ -1226,32 +1600,32 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
@@ -1268,462 +1642,462 @@
       <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
     </row>
     <row r="43" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="28"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="34"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
@@ -1744,115 +2118,145 @@
       <c r="L53" s="18"/>
     </row>
     <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+    <row r="56" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+    </row>
+    <row r="57" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="73"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
+      <c r="A58" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="68"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
+      <c r="A59" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="58"/>
+    </row>
+    <row r="60" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="63"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -1860,13 +2264,9 @@
       <c r="L61" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
@@ -1874,29 +2274,148 @@
       <c r="L62" s="18"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:H54"/>
+  <mergeCells count="158">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G4:L10"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:L20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:L47"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="G48:H48"/>
@@ -1909,131 +2428,35 @@
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:L50"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="A19:L20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G4:L10"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangalor/PycharmProjects/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30DB662-154D-B541-B907-FFB81558E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC529D-E713-9C4F-AE6B-DA6F124CB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22400" windowHeight="22240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,17 +232,17 @@
     <t xml:space="preserve">Total fee with 25% overtime (for in and out) </t>
   </si>
   <si>
-    <t xml:space="preserve">Total agency fee basis 25% overtime (for in and out) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Grand total basis 25% overtime (for in and out) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total agency fee (No overtime applicable) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +324,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -511,140 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -742,6 +615,63 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -891,8 +821,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -900,56 +830,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,7 +1196,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+      <selection activeCell="A60" sqref="A60:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,92 +2096,92 @@
       <c r="L56" s="53"/>
     </row>
     <row r="57" spans="1:12" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="72" t="s">
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72" t="s">
+      <c r="H57" s="62"/>
+      <c r="I57" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="62"/>
+      <c r="K57" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="73"/>
+      <c r="L57" s="63"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67" t="s">
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67" t="s">
+      <c r="H58" s="57"/>
+      <c r="I58" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67" t="s">
+      <c r="J58" s="57"/>
+      <c r="K58" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="L58" s="68"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="57" t="s">
+      <c r="L58" s="58"/>
+    </row>
+    <row r="59" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="68"/>
+    </row>
+    <row r="60" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="58"/>
-    </row>
-    <row r="60" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="62" t="s">
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62" t="s">
+      <c r="H60" s="72"/>
+      <c r="I60" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62" t="s">
+      <c r="J60" s="72"/>
+      <c r="K60" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="L60" s="63"/>
+      <c r="L60" s="73"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D61" s="18"/>
